--- a/Implementation/Final Output.xlsx
+++ b/Implementation/Final Output.xlsx
@@ -429,21 +429,19 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Cities</t>
+          <t>Domain</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>99004360</t>
+          <t>99004361</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ozhukarai
- Sikar
- Akola</t>
+          <t>Big Data</t>
         </is>
       </c>
     </row>

--- a/Implementation/Final Output.xlsx
+++ b/Implementation/Final Output.xlsx
@@ -429,19 +429,21 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Domain</t>
+          <t>Languages</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>99004361</t>
+          <t>99004320</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Big Data</t>
+          <t xml:space="preserve"> C 
+ Python
+ Java</t>
         </is>
       </c>
     </row>

--- a/Implementation/Final Output.xlsx
+++ b/Implementation/Final Output.xlsx
@@ -429,21 +429,21 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Languages</t>
+          <t>Cities</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>99004320</t>
+          <t>99004360</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> C 
- Python
- Java</t>
+          <t xml:space="preserve"> Ozhukarai
+ Sikar
+ Akola</t>
         </is>
       </c>
     </row>

--- a/Implementation/Final Output.xlsx
+++ b/Implementation/Final Output.xlsx
@@ -436,14 +436,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>99004360</t>
+          <t>99004361</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ozhukarai
- Sikar
- Akola</t>
+          <t xml:space="preserve"> Salem
+ Gulbarga
+ Cuttack</t>
         </is>
       </c>
     </row>
